--- a/data/input/absenteeism_data_28.xlsx
+++ b/data/input/absenteeism_data_28.xlsx
@@ -476,50 +476,50 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71469</v>
+        <v>90133</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esther Campos</t>
+          <t>Dra. Beatriz da Mata</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>7010.87</v>
+        <v>2782.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>24482</v>
+        <v>80059</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Julia Barbosa</t>
+          <t>Lucas Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -529,45 +529,45 @@
         <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>2667.38</v>
+        <v>11899.41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>53091</v>
+        <v>74569</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luiz Otávio da Cruz</t>
+          <t>Luiz Otávio Monteiro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>11852.88</v>
+        <v>12423.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>84539</v>
+        <v>63240</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Clara da Paz</t>
+          <t>Clarice Correia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,191 +577,191 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>6741.15</v>
+        <v>8390.709999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>78128</v>
+        <v>75449</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiz Otávio Viana</t>
+          <t>Mariana Porto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>6918.88</v>
+        <v>2772.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74558</v>
+        <v>24348</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Paulo Sales</t>
+          <t>Dr. Luiz Gustavo Almeida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>3804.86</v>
+        <v>11681.88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6190</v>
+        <v>68655</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Barros</t>
+          <t>Danilo Caldeira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>3098.5</v>
+        <v>8639.77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99152</v>
+        <v>90731</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Cecília Jesus</t>
+          <t>Amanda Melo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45079</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>10631.7</v>
+        <v>9703.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20227</v>
+        <v>25362</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Samuel Fogaça</t>
+          <t>Maria Luiza Freitas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>12171.26</v>
+        <v>3196.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17340</v>
+        <v>35913</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Natália Nogueira</t>
+          <t>Francisco Moraes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>4603.06</v>
+        <v>11202.75</v>
       </c>
     </row>
   </sheetData>
